--- a/ERP/ERP.Web/Content/Files/IMPORT_HANGHOA.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_HANGHOA.xlsx
@@ -14,76 +14,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>MA_HANG_HT</t>
-  </si>
-  <si>
-    <t>MA_HANG_NHAP</t>
-  </si>
-  <si>
-    <t>TEN_HANG</t>
-  </si>
-  <si>
-    <t>MA_NHOM_HANG</t>
-  </si>
-  <si>
-    <t>SERI</t>
-  </si>
-  <si>
-    <t>DON_VI_TINH</t>
-  </si>
-  <si>
-    <t>XUAT_XU</t>
-  </si>
-  <si>
-    <t>MODEL_DAC_BIET</t>
-  </si>
-  <si>
-    <t>HINH_ANH</t>
-  </si>
-  <si>
-    <t>DAC_TINH</t>
-  </si>
-  <si>
-    <t>GHI_CHU</t>
-  </si>
-  <si>
-    <t>TK_HACH_TOAN_KHO</t>
-  </si>
-  <si>
-    <t>TK_DOANH_THU</t>
-  </si>
-  <si>
-    <t>TK_CHI_PHI</t>
-  </si>
-  <si>
-    <t>A22-24AG</t>
-  </si>
-  <si>
-    <t>OMRON</t>
-  </si>
-  <si>
-    <t>CÁI</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>A1100-24AG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>MÃ HÀNG</t>
+  </si>
+  <si>
+    <t>TÊN HÀNG</t>
+  </si>
+  <si>
+    <t>MÃ NHÓM HÀNG</t>
+  </si>
+  <si>
+    <t>ĐƠN VỊ TÍNH</t>
+  </si>
+  <si>
+    <t>KHỐI LƯỢNG</t>
+  </si>
+  <si>
+    <t>XUẤT XỨ</t>
+  </si>
+  <si>
+    <t>BẢO HÀNG(tháng)</t>
+  </si>
+  <si>
+    <t>THÔNG SỐ KỸ THUẬT</t>
+  </si>
+  <si>
+    <t>QUY CÁCH ĐÓNG GÓI</t>
+  </si>
+  <si>
+    <t>HÌNH ẢNH</t>
+  </si>
+  <si>
+    <t>GHI CHÚ</t>
+  </si>
+  <si>
+    <t>TÀI KHOẢN DOANH THU</t>
+  </si>
+  <si>
+    <t>TÀI KHOẢN CHI PHÍ</t>
+  </si>
+  <si>
+    <t>TÀI KHOẢN KHO</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,9 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,106 +404,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-    <col min="13" max="14" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>156</v>
-      </c>
-      <c r="M2">
-        <v>5111</v>
-      </c>
-      <c r="N2">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ERP/ERP.Web/Content/Files/IMPORT_HANGHOA.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_HANGHOA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>MÃ HÀNG</t>
   </si>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>MÃ CHUẨN</t>
+  </si>
+  <si>
+    <t>THÔNG SỐ</t>
+  </si>
+  <si>
+    <t>GIÁ LIST</t>
+  </si>
+  <si>
+    <t>MÃ NHẬP HÀNG</t>
+  </si>
+  <si>
+    <t>GIÁ NHẬP</t>
+  </si>
+  <si>
+    <t>DISCONTINUE</t>
+  </si>
+  <si>
+    <t>MÃ CHUYỂN ĐỔI</t>
   </si>
 </sst>
 </file>
@@ -122,11 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,33 +428,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="1" customWidth="1"/>
+    <col min="15" max="17" width="24.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="36.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -438,43 +462,132 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1">
+        <v>20</v>
+      </c>
+      <c r="U2" s="1">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
